--- a/HW/HW3/kmap.xlsx
+++ b/HW/HW3/kmap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahul/Downloads/spring23_hw3/student/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanush/Programming/School/CS2110/HW/HW3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC25BD4-D9F0-2743-8BED-F63FD615113D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3694CD56-AF96-9C4E-B5DA-B028CFD6D501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="21960" windowHeight="15880" xr2:uid="{E669F371-B88B-4909-8EAE-8F389B6E16B2}"/>
+    <workbookView xWindow="17440" yWindow="740" windowWidth="12800" windowHeight="18900" xr2:uid="{E669F371-B88B-4909-8EAE-8F389B6E16B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
   <si>
     <t>S1'S0'</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>S1'S0G'+S1S0'G'</t>
+  </si>
+  <si>
+    <t>G+S0'</t>
+  </si>
+  <si>
+    <t>S0+S1'</t>
   </si>
 </sst>
 </file>
@@ -465,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F6CD62-9EA1-4796-8420-5C827DF2B464}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -491,7 +500,9 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
@@ -500,19 +511,35 @@
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -530,7 +557,9 @@
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
@@ -539,19 +568,35 @@
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -569,7 +614,9 @@
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="H9" s="3" t="s">
         <v>13</v>
       </c>
@@ -578,19 +625,35 @@
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -608,7 +671,9 @@
       <c r="E13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="H13" s="3" t="s">
         <v>5</v>
       </c>
@@ -617,19 +682,35 @@
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -647,7 +728,9 @@
       <c r="E17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H17" s="3" t="s">
         <v>7</v>
       </c>
@@ -656,19 +739,35 @@
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
